--- a/data/trans_camb/P1803_2016_2023-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1803_2016_2023-Provincia-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>5.915607532399039</v>
+        <v>5.915607532399042</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.21924427204131</v>
+        <v>8.219244272041314</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.070762566932115</v>
+        <v>7.070762566932112</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.343464229361643</v>
+        <v>1.509629564705553</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.790384859193538</v>
+        <v>3.135512630290666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.363889694349181</v>
+        <v>3.616925478778368</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.84839094597785</v>
+        <v>11.05363058168595</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.2315516485614</v>
+        <v>13.59954547670663</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.58557600364718</v>
+        <v>10.78750266390803</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.7745432374700205</v>
+        <v>0.7745432374700209</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.7121746067795718</v>
+        <v>0.712174606779572</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7386653476202284</v>
+        <v>0.7386653476202281</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.09683179681389202</v>
+        <v>0.1285291929747499</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1787337152164785</v>
+        <v>0.207575289941786</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2761284486360611</v>
+        <v>0.3110932366646227</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.07204853154149</v>
+        <v>2.143994383765241</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.556964401299834</v>
+        <v>1.63752775353963</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.331167599467885</v>
+        <v>1.477186145931798</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>5.543345248202291</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.575781994775014</v>
+        <v>4.575781994775016</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9595368396473319</v>
+        <v>0.8918994256690025</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.780546938193663</v>
+        <v>2.944313677142978</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.681804088614081</v>
+        <v>2.680519323677289</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.736998366316653</v>
+        <v>7.09834405713327</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.168277535573901</v>
+        <v>8.480636219997258</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.747489420562157</v>
+        <v>6.541317162226055</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.181860134723606</v>
+        <v>0.07315901811320268</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.6680507197807826</v>
+        <v>0.6231402719685289</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7904185965143783</v>
+        <v>0.8104596330306012</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5.451887348251728</v>
+        <v>6.366082239298182</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.996520859862864</v>
+        <v>4.591469628301656</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.970758559266578</v>
+        <v>3.744757418337391</v>
       </c>
     </row>
     <row r="16">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>8.711519243913168</v>
+        <v>8.711519243913171</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>9.8379207009369</v>
+        <v>9.837920700936898</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>9.315492371948435</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.403484489276457</v>
+        <v>5.380511686507139</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.955724119464334</v>
+        <v>6.474784525067928</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.103663457593368</v>
+        <v>7.070358978965298</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.83392157360758</v>
+        <v>12.48822431414891</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.38625985095412</v>
+        <v>13.11896455628828</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.8912441314581</v>
+        <v>11.76801371031062</v>
       </c>
     </row>
     <row r="19">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5.277627900091681</v>
+        <v>5.277627900091683</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4.667014172738313</v>
+        <v>4.667014172738311</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>4.940581389251038</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>1.435510914776546</v>
+        <v>1.462605640124745</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>1.808071423953792</v>
+        <v>1.623889751246484</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>2.410567283868437</v>
+        <v>2.398294564716807</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>17.79132647787359</v>
+        <v>18.02755126364723</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>13.3468559561098</v>
+        <v>12.22667753106185</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>10.67124358310027</v>
+        <v>10.45716937978849</v>
       </c>
     </row>
     <row r="22">
@@ -885,10 +885,10 @@
         <v>2.101767172545713</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.498920261567757</v>
+        <v>4.498920261567759</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.359237714732072</v>
+        <v>3.359237714732069</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.200410364614208</v>
+        <v>-2.325114785983558</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5871049253895944</v>
+        <v>0.5522172175075837</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4600094589684226</v>
+        <v>0.5319419975269057</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.080548745177473</v>
+        <v>7.348176794093958</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.327334017539814</v>
+        <v>8.001703749768565</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.430200858776105</v>
+        <v>6.150139357560806</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>0.2757026919776062</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.6557714180869311</v>
+        <v>0.6557714180869315</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4644204359809472</v>
+        <v>0.4644204359809468</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2439271370729454</v>
+        <v>-0.2631116163060324</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.0483237204040664</v>
+        <v>0.05392238893157469</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05367967855367609</v>
+        <v>0.05201366419250495</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.324022017828688</v>
+        <v>1.242838835062569</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.705434532454385</v>
+        <v>1.594612844678407</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.098972904370959</v>
+        <v>1.062867043110488</v>
       </c>
     </row>
     <row r="28">
@@ -991,10 +991,10 @@
         <v>1.568468160456164</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-0.9389317290810585</v>
+        <v>-0.9389317290810593</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.2795688651046319</v>
+        <v>0.2795688651046312</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.397279684314907</v>
+        <v>-1.374972941512529</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.491382283893783</v>
+        <v>-4.427287022271315</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.997635553343192</v>
+        <v>-1.797169726770838</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.272288270862568</v>
+        <v>5.439447880146813</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.858576467857572</v>
+        <v>1.661053599055453</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.243308433034997</v>
+        <v>2.560966194930006</v>
       </c>
     </row>
     <row r="31">
@@ -1042,10 +1042,10 @@
         <v>0.7306565917378012</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.246187369913606</v>
+        <v>-0.2461873699136061</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.09335892259245394</v>
+        <v>0.09335892259245371</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5531277993087304</v>
+        <v>-0.5599828955843992</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7053283142076986</v>
+        <v>-0.6928755025660974</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5011121260207014</v>
+        <v>-0.4647641962480457</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>5.590184144391157</v>
+        <v>4.818075113840181</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9885581475952167</v>
+        <v>0.9427421498800264</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.22288048884413</v>
+        <v>1.399904284828382</v>
       </c>
     </row>
     <row r="34">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.7786863488522616</v>
+        <v>0.7786863488522631</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>9.162769687873181</v>
+        <v>9.162769687873173</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>4.965942649914598</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.584094127544815</v>
+        <v>-4.106190515288052</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4.998419343939371</v>
+        <v>5.255727558974471</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.787118918233283</v>
+        <v>2.073858264914068</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.394164437424603</v>
+        <v>5.208419524817792</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>13.06672938363218</v>
+        <v>13.64548709258211</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.668005505241464</v>
+        <v>7.95275475179823</v>
       </c>
     </row>
     <row r="37">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>0.1028991343496524</v>
+        <v>0.1028991343496526</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>2.072171346623872</v>
+        <v>2.07217134662387</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.8324661117540704</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.344886220898146</v>
+        <v>-0.409001277629215</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.714900538012685</v>
+        <v>0.8074878928206767</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2314027576640173</v>
+        <v>0.2827454003606681</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.083009623305821</v>
+        <v>1.005117225244386</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>4.972800883339952</v>
+        <v>5.024869051952916</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.760111417409146</v>
+        <v>1.838991539099025</v>
       </c>
     </row>
     <row r="40">
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>7.473151530045855</v>
+        <v>7.473151530045852</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>8.691891569399521</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>8.106173443431498</v>
+        <v>8.106173443431501</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>4.222074687145778</v>
+        <v>4.065087147841026</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.906401093917222</v>
+        <v>5.550232548000077</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.003737080223267</v>
+        <v>5.93325555845272</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.40891493487305</v>
+        <v>10.86648115023949</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.75814089315331</v>
+        <v>11.42639852066791</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10.47140551402751</v>
+        <v>10.38419171115974</v>
       </c>
     </row>
     <row r="43">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>1.448856542412903</v>
+        <v>1.448856542412902</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>1.540575911895161</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.623224148259623</v>
+        <v>0.629592820474066</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.8089429731530923</v>
+        <v>0.7374925872486309</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.9030446495181199</v>
+        <v>0.9432774209326966</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.094901211285029</v>
+        <v>2.886307286066094</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.758326945298742</v>
+        <v>2.657310449377845</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.342800536067509</v>
+        <v>2.371315276582</v>
       </c>
     </row>
     <row r="46">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.561383732650258</v>
+        <v>-3.512082254055169</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.49488320370602</v>
+        <v>-6.514449966084064</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.357778472361517</v>
+        <v>-4.496006571408283</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.09343130489354101</v>
+        <v>0.08028625366365984</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.291364909928805</v>
+        <v>-2.467585486978428</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.575146318481722</v>
+        <v>-1.620122651561444</v>
       </c>
     </row>
     <row r="49">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6949361991723074</v>
+        <v>-0.6998285630082128</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7859611576310069</v>
+        <v>-0.7769968547041651</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.701645713465324</v>
+        <v>-0.6951967765998535</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.06572254146904848</v>
+        <v>0.04647322733898294</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.4371282582968865</v>
+        <v>-0.4331331301527598</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.3337262463106608</v>
+        <v>-0.3293035830907446</v>
       </c>
     </row>
     <row r="52">
@@ -1418,7 +1418,7 @@
         <v>4.410717880700889</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>3.922622607525953</v>
+        <v>3.922622607525954</v>
       </c>
     </row>
     <row r="53">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>2.137375602634285</v>
+        <v>2.104097243457955</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>3.298604024912152</v>
+        <v>3.27650990181865</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>3.067880347743891</v>
+        <v>3.153061508637213</v>
       </c>
     </row>
     <row r="54">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.648069079021865</v>
+        <v>4.639172091107229</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>5.609400049579627</v>
+        <v>5.603318999105529</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.706685891571087</v>
+        <v>4.737689520770012</v>
       </c>
     </row>
     <row r="55">
@@ -1469,7 +1469,7 @@
         <v>0.7988480766564364</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.7749934766931744</v>
+        <v>0.7749934766931746</v>
       </c>
     </row>
     <row r="56">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.4143030583040843</v>
+        <v>0.4271183737539399</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.5360252348196279</v>
+        <v>0.5256683051156998</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.5515410422699335</v>
+        <v>0.5772116792352543</v>
       </c>
     </row>
     <row r="57">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.142083819829439</v>
+        <v>1.136395343983243</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.159053118014389</v>
+        <v>1.118245146584259</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.004734801349557</v>
+        <v>1.023221971612105</v>
       </c>
     </row>
     <row r="58">
